--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PEMHbundle</t>
+    <t>PEMHbundleRquest</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Example Patient Profile</t>
+    <t>Perfil Bundle de mensagem</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:24:07+00:00</t>
+    <t>2022-07-14T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-example-patient-profile.xlsx
+++ b/branches/master/StructureDefinition-example-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,45 +280,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Bundle.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Bundle.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Bundle.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Bundle.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -369,10 +373,6 @@
   </si>
   <si>
     <t>Bundle.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2005,13 +2005,13 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2062,7 +2062,7 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
@@ -2080,7 +2080,7 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>76</v>
@@ -2091,11 +2091,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2114,16 +2114,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2161,19 +2161,19 @@
         <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
@@ -2185,13 +2185,13 @@
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>76</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2225,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -3668,13 +3668,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3725,7 +3725,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3743,7 +3743,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3777,16 +3777,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3836,7 +3836,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3848,13 +3848,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3888,7 +3888,7 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>207</v>
@@ -3897,7 +3897,7 @@
         <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>209</v>
@@ -3961,7 +3961,7 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -4001,7 +4001,7 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>212</v>
@@ -4271,7 +4271,7 @@
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>217</v>
@@ -4326,13 +4326,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4383,7 +4383,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4401,7 +4401,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4435,16 +4435,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4494,7 +4494,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4506,13 +4506,13 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4546,7 +4546,7 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>207</v>
@@ -4555,7 +4555,7 @@
         <v>208</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>209</v>
@@ -4619,7 +4619,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -5097,13 +5097,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5154,7 +5154,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5172,7 +5172,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5206,16 +5206,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5265,7 +5265,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5277,13 +5277,13 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5317,7 +5317,7 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>207</v>
@@ -5326,7 +5326,7 @@
         <v>208</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>209</v>
@@ -5390,7 +5390,7 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5761,13 +5761,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5818,7 +5818,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5836,7 +5836,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5870,16 +5870,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5929,7 +5929,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5941,13 +5941,13 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5981,7 +5981,7 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>207</v>
@@ -5990,7 +5990,7 @@
         <v>208</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>209</v>
@@ -6054,7 +6054,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
@@ -6314,7 +6314,7 @@
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6532,7 +6532,7 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>277</v>
@@ -6641,7 +6641,7 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>280</v>
@@ -6859,13 +6859,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6916,7 +6916,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6934,7 +6934,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6968,16 +6968,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7027,7 +7027,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7039,13 +7039,13 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7079,7 +7079,7 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>207</v>
@@ -7088,7 +7088,7 @@
         <v>208</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>209</v>
@@ -7152,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7192,7 +7192,7 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>290</v>
@@ -7410,7 +7410,7 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>296</v>
@@ -7854,13 +7854,13 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7911,7 +7911,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -7929,7 +7929,7 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7963,16 +7963,16 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8022,7 +8022,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8034,13 +8034,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8074,7 +8074,7 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>207</v>
@@ -8083,7 +8083,7 @@
         <v>208</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>209</v>
@@ -8147,7 +8147,7 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -8625,13 +8625,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8682,7 +8682,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8700,7 +8700,7 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8734,16 +8734,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8793,7 +8793,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -8805,13 +8805,13 @@
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -8845,7 +8845,7 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>207</v>
@@ -8854,7 +8854,7 @@
         <v>208</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>209</v>
@@ -8918,7 +8918,7 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -9289,13 +9289,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9346,7 +9346,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9364,7 +9364,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9398,16 +9398,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9457,7 +9457,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9469,13 +9469,13 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -9509,7 +9509,7 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>207</v>
@@ -9518,7 +9518,7 @@
         <v>208</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>209</v>
@@ -9582,7 +9582,7 @@
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
@@ -9842,7 +9842,7 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>272</v>
@@ -10060,7 +10060,7 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>277</v>
@@ -10169,7 +10169,7 @@
         <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>280</v>
@@ -10387,13 +10387,13 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10444,7 +10444,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10462,7 +10462,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10496,16 +10496,16 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10555,7 +10555,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10567,13 +10567,13 @@
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -10607,7 +10607,7 @@
         <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>207</v>
@@ -10616,7 +10616,7 @@
         <v>208</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>209</v>
@@ -10680,7 +10680,7 @@
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -10720,7 +10720,7 @@
         <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>290</v>
@@ -10938,7 +10938,7 @@
         <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>296</v>
@@ -11382,13 +11382,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11439,7 +11439,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11457,7 +11457,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11491,16 +11491,16 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11550,7 +11550,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11562,13 +11562,13 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11602,7 +11602,7 @@
         <v>86</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>207</v>
@@ -11611,7 +11611,7 @@
         <v>208</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>209</v>
@@ -11675,7 +11675,7 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
@@ -12153,13 +12153,13 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12210,7 +12210,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -12228,7 +12228,7 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12262,16 +12262,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12321,7 +12321,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -12333,13 +12333,13 @@
         <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>76</v>
@@ -12373,7 +12373,7 @@
         <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>207</v>
@@ -12382,7 +12382,7 @@
         <v>208</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>209</v>
@@ -12446,7 +12446,7 @@
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
@@ -12817,13 +12817,13 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12874,7 +12874,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -12892,7 +12892,7 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>76</v>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12926,16 +12926,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -12985,7 +12985,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -12997,13 +12997,13 @@
         <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>76</v>
@@ -13037,7 +13037,7 @@
         <v>86</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>207</v>
@@ -13046,7 +13046,7 @@
         <v>208</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>209</v>
@@ -13110,7 +13110,7 @@
         <v>76</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>76</v>
@@ -13370,7 +13370,7 @@
         <v>86</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>272</v>
@@ -13588,7 +13588,7 @@
         <v>86</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>277</v>
@@ -13697,7 +13697,7 @@
         <v>86</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>280</v>
@@ -13915,13 +13915,13 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13972,7 +13972,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -13990,7 +13990,7 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>76</v>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14024,16 +14024,16 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14083,7 +14083,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -14095,13 +14095,13 @@
         <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>76</v>
@@ -14135,7 +14135,7 @@
         <v>86</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>207</v>
@@ -14144,7 +14144,7 @@
         <v>208</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>209</v>
@@ -14208,7 +14208,7 @@
         <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
@@ -14248,7 +14248,7 @@
         <v>86</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>290</v>
@@ -14466,7 +14466,7 @@
         <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>296</v>
@@ -14910,13 +14910,13 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -14967,7 +14967,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -14985,7 +14985,7 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>76</v>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15019,16 +15019,16 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15078,7 +15078,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -15090,13 +15090,13 @@
         <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>76</v>
@@ -15130,7 +15130,7 @@
         <v>86</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>207</v>
@@ -15139,7 +15139,7 @@
         <v>208</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>209</v>
@@ -15203,7 +15203,7 @@
         <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>
@@ -15681,13 +15681,13 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15738,7 +15738,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -15756,7 +15756,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15790,16 +15790,16 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -15849,7 +15849,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -15861,13 +15861,13 @@
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>76</v>
@@ -15901,7 +15901,7 @@
         <v>86</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>207</v>
@@ -15910,7 +15910,7 @@
         <v>208</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>209</v>
@@ -15974,7 +15974,7 @@
         <v>76</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>76</v>
@@ -16345,13 +16345,13 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16402,7 +16402,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -16420,7 +16420,7 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>76</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -16454,16 +16454,16 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -16513,7 +16513,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -16525,13 +16525,13 @@
         <v>76</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>76</v>
@@ -16565,7 +16565,7 @@
         <v>86</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>207</v>
@@ -16574,7 +16574,7 @@
         <v>208</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>209</v>
@@ -16638,7 +16638,7 @@
         <v>76</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>76</v>
@@ -16898,7 +16898,7 @@
         <v>86</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>272</v>
@@ -17116,7 +17116,7 @@
         <v>86</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>277</v>
@@ -17225,7 +17225,7 @@
         <v>86</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>280</v>
@@ -17443,13 +17443,13 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17500,7 +17500,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -17518,7 +17518,7 @@
         <v>76</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>76</v>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17552,16 +17552,16 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -17611,7 +17611,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
@@ -17623,13 +17623,13 @@
         <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>76</v>
@@ -17663,7 +17663,7 @@
         <v>86</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>207</v>
@@ -17672,7 +17672,7 @@
         <v>208</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>209</v>
@@ -17736,7 +17736,7 @@
         <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>76</v>
@@ -17776,7 +17776,7 @@
         <v>86</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>290</v>
@@ -17994,7 +17994,7 @@
         <v>86</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>296</v>
@@ -18440,13 +18440,13 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18497,7 +18497,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -18515,7 +18515,7 @@
         <v>76</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>76</v>
@@ -18530,7 +18530,7 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18549,16 +18549,16 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -18596,19 +18596,19 @@
         <v>76</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB155" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -18620,13 +18620,13 @@
         <v>76</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>76</v>
